--- a/book-chapter-conversion-workflow.xlsx
+++ b/book-chapter-conversion-workflow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianm/OneDrive - SAGE Publishing/rich-context-compettion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianm/OneDrive - SAGE Publishing/rich-context-compettion/rich-context-book-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Team rcc-05</t>
@@ -130,8 +127,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,14 +161,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -179,13 +183,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,7 +473,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,16 +516,22 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -524,21 +539,30 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
@@ -555,10 +579,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -566,10 +590,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -577,15 +601,24 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>

--- a/book-chapter-conversion-workflow.xlsx
+++ b/book-chapter-conversion-workflow.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="1480" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1480" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -90,6 +91,75 @@
   </si>
   <si>
     <t>bundesbank</t>
+  </si>
+  <si>
+    <t>received final chaapter</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>chaapter</t>
+  </si>
+  <si>
+    <t>finalish chapter</t>
+  </si>
+  <si>
+    <t>individual markdown working?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merged markdown working? </t>
+  </si>
+  <si>
+    <t>01-intro</t>
+  </si>
+  <si>
+    <t>02-bundesbank</t>
+  </si>
+  <si>
+    <t>03-use case</t>
+  </si>
+  <si>
+    <t>04-broader context</t>
+  </si>
+  <si>
+    <t>05-compettion design</t>
+  </si>
+  <si>
+    <t>06-AI</t>
+  </si>
+  <si>
+    <t>07-KAIST</t>
+  </si>
+  <si>
+    <t>08-GESIS</t>
+  </si>
+  <si>
+    <t>09-DICE</t>
+  </si>
+  <si>
+    <t>10-Singapore</t>
+  </si>
+  <si>
+    <t>11-agenda-next-steps</t>
+  </si>
+  <si>
+    <t>12-suracuse</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Chaaser sent</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>(going to be Sebastian and Alex Wade</t>
   </si>
 </sst>
 </file>
@@ -161,11 +231,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -184,7 +258,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -192,9 +266,13 @@
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,10 +561,11 @@
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +584,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -526,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -537,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -557,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -577,7 +659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -588,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -599,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -616,12 +698,179 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
